--- a/public/upload/lhz.xlsx
+++ b/public/upload/lhz.xlsx
@@ -32,9 +32,6 @@
     <t>特技名稱</t>
   </si>
   <si>
-    <t>最大ＳＲ</t>
-  </si>
-  <si>
     <t>時機</t>
   </si>
   <si>
@@ -259,6 +256,10 @@
   </si>
   <si>
     <t>標籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大ＳＲ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +280,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -305,8 +314,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +649,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -647,582 +659,582 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
         <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
         <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
         <v>63</v>
-      </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
         <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
